--- a/Data/TestData Scenario2.xlsx
+++ b/Data/TestData Scenario2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priscilla.d\Documents\UiPath\TestAutomationFramework_Sample\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2B32C2-3EF0-449E-AAAB-03786B7A95D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FA3594-70B8-45C1-BDED-3B8A86E51BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8FF6E28-2E1E-4A70-B66D-CC35AC6C73EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>priscilla7845@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDF5605-78E5-4CD3-89AE-0FEF13F82169}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,23 +454,29 @@
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>7358307962</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -472,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
